--- a/simple.xlsx
+++ b/simple.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -76,11 +76,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,11 +144,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -262,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,18 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -504,7 +493,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>43347.416666666657</v>
+        <v>43347.41666666666</v>
       </c>
       <c r="G2">
         <v>27667</v>
@@ -513,7 +502,7 @@
         <v>150</v>
       </c>
       <c r="I2" s="2">
-        <v>43347.611805555563</v>
+        <v>43347.61180555556</v>
       </c>
       <c r="J2">
         <v>27944</v>
@@ -534,7 +523,7 @@
         <v>-41750</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -545,7 +534,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>43348.416666666657</v>
+        <v>43348.41666666666</v>
       </c>
       <c r="G3">
         <v>27628</v>
@@ -554,7 +543,7 @@
         <v>150</v>
       </c>
       <c r="I3" s="2">
-        <v>43348.673611111109</v>
+        <v>43348.67361111111</v>
       </c>
       <c r="J3">
         <v>27113</v>
@@ -575,7 +564,7 @@
         <v>77050</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -586,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>43349.416666666657</v>
+        <v>43349.41666666666</v>
       </c>
       <c r="G4">
         <v>27134</v>
@@ -595,7 +584,7 @@
         <v>150</v>
       </c>
       <c r="I4" s="2">
-        <v>43349.673611111109</v>
+        <v>43349.67361111111</v>
       </c>
       <c r="J4">
         <v>26968</v>
@@ -610,13 +599,13 @@
         <v>24700</v>
       </c>
       <c r="N4">
-        <v>0.60686469619911065</v>
+        <v>0.6068646961991107</v>
       </c>
       <c r="O4">
         <v>24700</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -627,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>43350.416666666657</v>
+        <v>43350.41666666666</v>
       </c>
       <c r="G5">
         <v>27106</v>
@@ -636,7 +625,7 @@
         <v>150</v>
       </c>
       <c r="I5" s="2">
-        <v>43350.673611111109</v>
+        <v>43350.67361111111</v>
       </c>
       <c r="J5">
         <v>26852</v>
@@ -651,13 +640,13 @@
         <v>37900</v>
       </c>
       <c r="N5">
-        <v>0.93214294498143102</v>
+        <v>0.932142944981431</v>
       </c>
       <c r="O5">
         <v>37900</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -668,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>43353.416666666657</v>
+        <v>43353.41666666666</v>
       </c>
       <c r="G6">
         <v>26605</v>
@@ -677,7 +666,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="2">
-        <v>43353.673611111109</v>
+        <v>43353.67361111111</v>
       </c>
       <c r="J6">
         <v>26620</v>
@@ -692,13 +681,13 @@
         <v>-1700</v>
       </c>
       <c r="N6">
-        <v>-6.3897763578274758E-2</v>
+        <v>-0.06389776357827476</v>
       </c>
       <c r="O6">
         <v>-1700</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -715,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>43353.416666666657</v>
+        <v>43353.41666666666</v>
       </c>
       <c r="G7">
-        <v>424.70707743117958</v>
+        <v>424.7070774311796</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7" s="2">
-        <v>43353.673611111109</v>
+        <v>43353.67361111111</v>
       </c>
       <c r="J7">
         <v>418.8329549772825</v>
@@ -736,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-787.41224538971437</v>
+        <v>-787.4122453897144</v>
       </c>
       <c r="N7">
-        <v>-1.8540125353039549</v>
+        <v>-1.854012535303955</v>
       </c>
       <c r="O7">
-        <v>-787.41224538971437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-787.4122453897144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -756,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>43354.416666666657</v>
+        <v>43354.41666666666</v>
       </c>
       <c r="G8">
         <v>26548</v>
@@ -765,7 +754,7 @@
         <v>150</v>
       </c>
       <c r="I8" s="2">
-        <v>43354.673611111109</v>
+        <v>43354.67361111111</v>
       </c>
       <c r="J8">
         <v>26347</v>
@@ -780,13 +769,13 @@
         <v>29950</v>
       </c>
       <c r="N8">
-        <v>0.75209683089749391</v>
+        <v>0.7520968308974939</v>
       </c>
       <c r="O8">
         <v>29950</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -797,7 +786,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>43355.416666666657</v>
+        <v>43355.41666666666</v>
       </c>
       <c r="G9">
         <v>26230</v>
@@ -806,7 +795,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="2">
-        <v>43355.673611111109</v>
+        <v>43355.67361111111</v>
       </c>
       <c r="J9">
         <v>26363</v>
@@ -821,13 +810,13 @@
         <v>-20150</v>
       </c>
       <c r="N9">
-        <v>-0.51213623077900627</v>
+        <v>-0.5121362307790063</v>
       </c>
       <c r="O9">
         <v>-20150</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -838,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>43356.416666666657</v>
+        <v>43356.41666666666</v>
       </c>
       <c r="G10">
         <v>26890</v>
@@ -847,7 +836,7 @@
         <v>150</v>
       </c>
       <c r="I10" s="2">
-        <v>43356.673611111109</v>
+        <v>43356.67361111111</v>
       </c>
       <c r="J10">
         <v>27026</v>
@@ -862,13 +851,13 @@
         <v>20200</v>
       </c>
       <c r="N10">
-        <v>0.50080575182843678</v>
+        <v>0.5008057518284368</v>
       </c>
       <c r="O10">
         <v>20200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -879,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>43357.416666666657</v>
+        <v>43357.41666666666</v>
       </c>
       <c r="G11">
         <v>27080</v>
@@ -888,7 +877,7 @@
         <v>150</v>
       </c>
       <c r="I11" s="2">
-        <v>43357.673611111109</v>
+        <v>43357.67361111111</v>
       </c>
       <c r="J11">
         <v>27226</v>
@@ -903,13 +892,13 @@
         <v>21700</v>
       </c>
       <c r="N11">
-        <v>0.53421959625800097</v>
+        <v>0.534219596258001</v>
       </c>
       <c r="O11">
         <v>21700</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -920,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="2">
-        <v>43360.416666666657</v>
+        <v>43360.41666666666</v>
       </c>
       <c r="G12">
         <v>26831</v>
@@ -929,7 +918,7 @@
         <v>100</v>
       </c>
       <c r="I12" s="2">
-        <v>43360.673611111109</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="J12">
         <v>26855</v>
@@ -944,13 +933,13 @@
         <v>-2600</v>
       </c>
       <c r="N12">
-        <v>-9.6902836271477027E-2</v>
+        <v>-0.09690283627147703</v>
       </c>
       <c r="O12">
         <v>-2600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -967,16 +956,16 @@
         <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>43360.416666666657</v>
+        <v>43360.41666666666</v>
       </c>
       <c r="G13">
-        <v>288.41773855036081</v>
+        <v>288.4177385503608</v>
       </c>
       <c r="H13">
         <v>100</v>
       </c>
       <c r="I13" s="2">
-        <v>43360.673611111109</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="J13">
         <v>279.9534827878233</v>
@@ -991,13 +980,13 @@
         <v>-1046.42557625375</v>
       </c>
       <c r="N13">
-        <v>-3.6281595629772041</v>
+        <v>-3.628159562977204</v>
       </c>
       <c r="O13">
         <v>-1046.42557625375</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1008,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>43361.416666666657</v>
+        <v>43361.41666666666</v>
       </c>
       <c r="G14">
         <v>26740</v>
@@ -1017,7 +1006,7 @@
         <v>150</v>
       </c>
       <c r="I14" s="2">
-        <v>43361.595138888893</v>
+        <v>43361.59513888889</v>
       </c>
       <c r="J14">
         <v>27008</v>
@@ -1032,13 +1021,13 @@
         <v>-40400</v>
       </c>
       <c r="N14">
-        <v>-1.0072301171777609</v>
+        <v>-1.007230117177761</v>
       </c>
       <c r="O14">
         <v>-40400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1049,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>43362.416666666657</v>
+        <v>43362.41666666666</v>
       </c>
       <c r="G15">
         <v>27128</v>
@@ -1058,7 +1047,7 @@
         <v>150</v>
       </c>
       <c r="I15" s="2">
-        <v>43362.480555555558</v>
+        <v>43362.48055555556</v>
       </c>
       <c r="J15">
         <v>27404</v>
@@ -1073,13 +1062,13 @@
         <v>41200</v>
       </c>
       <c r="N15">
-        <v>1.0124840263442449</v>
+        <v>1.012484026344245</v>
       </c>
       <c r="O15">
         <v>41200</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1090,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="2">
-        <v>43363.416666666657</v>
+        <v>43363.41666666666</v>
       </c>
       <c r="G16">
         <v>27597</v>
@@ -1099,7 +1088,7 @@
         <v>150</v>
       </c>
       <c r="I16" s="2">
-        <v>43363.673611111109</v>
+        <v>43363.67361111111</v>
       </c>
       <c r="J16">
         <v>27454</v>
@@ -1120,7 +1109,7 @@
         <v>-21650</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1131,7 +1120,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>43364.416666666657</v>
+        <v>43364.41666666666</v>
       </c>
       <c r="G17">
         <v>27651</v>
@@ -1140,7 +1129,7 @@
         <v>150</v>
       </c>
       <c r="I17" s="2">
-        <v>43364.617361111108</v>
+        <v>43364.61736111111</v>
       </c>
       <c r="J17">
         <v>27934</v>
@@ -1161,7 +1150,7 @@
         <v>42250</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1172,7 +1161,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>43367.416666666657</v>
+        <v>43367.41666666666</v>
       </c>
       <c r="G18">
         <v>27567</v>
@@ -1181,7 +1170,7 @@
         <v>150</v>
       </c>
       <c r="I18" s="2">
-        <v>43367.673611111109</v>
+        <v>43367.67361111111</v>
       </c>
       <c r="J18">
         <v>27473</v>
@@ -1202,7 +1191,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1213,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>43368.416666666657</v>
+        <v>43368.41666666666</v>
       </c>
       <c r="G19">
         <v>27446</v>
@@ -1222,7 +1211,7 @@
         <v>150</v>
       </c>
       <c r="I19" s="2">
-        <v>43368.673611111109</v>
+        <v>43368.67361111111</v>
       </c>
       <c r="J19">
         <v>27446</v>
@@ -1237,13 +1226,13 @@
         <v>-200</v>
       </c>
       <c r="N19">
-        <v>-4.858024241540965E-3</v>
+        <v>-0.004858024241540965</v>
       </c>
       <c r="O19">
         <v>-200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1254,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>43369.416666666657</v>
+        <v>43369.41666666666</v>
       </c>
       <c r="G20">
         <v>27656</v>
@@ -1263,7 +1252,7 @@
         <v>150</v>
       </c>
       <c r="I20" s="2">
-        <v>43369.457638888889</v>
+        <v>43369.45763888889</v>
       </c>
       <c r="J20">
         <v>27945</v>
@@ -1278,13 +1267,13 @@
         <v>43150</v>
       </c>
       <c r="N20">
-        <v>1.0401600617105391</v>
+        <v>1.040160061710539</v>
       </c>
       <c r="O20">
         <v>43150</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1295,7 +1284,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="2">
-        <v>43370.416666666657</v>
+        <v>43370.41666666666</v>
       </c>
       <c r="G21">
         <v>27836</v>
@@ -1304,7 +1293,7 @@
         <v>150</v>
       </c>
       <c r="I21" s="2">
-        <v>43370.673611111109</v>
+        <v>43370.67361111111</v>
       </c>
       <c r="J21">
         <v>27742</v>
@@ -1319,13 +1308,13 @@
         <v>-14300</v>
       </c>
       <c r="N21">
-        <v>-0.34248215739809362</v>
+        <v>-0.3424821573980936</v>
       </c>
       <c r="O21">
         <v>-14300</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1336,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>43374.416666666657</v>
+        <v>43374.41666666666</v>
       </c>
       <c r="G22">
         <v>27707</v>
@@ -1345,7 +1334,7 @@
         <v>150</v>
       </c>
       <c r="I22" s="2">
-        <v>43374.673611111109</v>
+        <v>43374.67361111111</v>
       </c>
       <c r="J22">
         <v>27707</v>
@@ -1360,13 +1349,13 @@
         <v>-200</v>
       </c>
       <c r="N22">
-        <v>-4.8122616426655119E-3</v>
+        <v>-0.004812261642665512</v>
       </c>
       <c r="O22">
         <v>-200</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1377,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>43375.416666666657</v>
+        <v>43375.41666666666</v>
       </c>
       <c r="G23">
         <v>27373</v>
@@ -1386,7 +1375,7 @@
         <v>150</v>
       </c>
       <c r="I23" s="2">
-        <v>43375.673611111109</v>
+        <v>43375.67361111111</v>
       </c>
       <c r="J23">
         <v>27043</v>
@@ -1401,13 +1390,13 @@
         <v>49300</v>
       </c>
       <c r="N23">
-        <v>1.2006965501284721</v>
+        <v>1.200696550128472</v>
       </c>
       <c r="O23">
         <v>49300</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1418,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>43376.416666666657</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="G24">
         <v>27129</v>
@@ -1427,7 +1416,7 @@
         <v>150</v>
       </c>
       <c r="I24" s="2">
-        <v>43376.673611111109</v>
+        <v>43376.67361111111</v>
       </c>
       <c r="J24">
         <v>27030</v>
@@ -1442,13 +1431,13 @@
         <v>14650</v>
       </c>
       <c r="N24">
-        <v>0.36000835514271318</v>
+        <v>0.3600083551427132</v>
       </c>
       <c r="O24">
         <v>14650</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1459,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>43377.416666666657</v>
+        <v>43377.41666666666</v>
       </c>
       <c r="G25">
         <v>26618</v>
@@ -1468,7 +1457,7 @@
         <v>150</v>
       </c>
       <c r="I25" s="2">
-        <v>43377.673611111109</v>
+        <v>43377.67361111111</v>
       </c>
       <c r="J25">
         <v>26577</v>
@@ -1483,13 +1472,13 @@
         <v>5950</v>
       </c>
       <c r="N25">
-        <v>0.14902196508628249</v>
+        <v>0.1490219650862825</v>
       </c>
       <c r="O25">
         <v>5950</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1500,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>43378.416666666657</v>
+        <v>43378.41666666666</v>
       </c>
       <c r="G26">
         <v>26469</v>
@@ -1509,7 +1498,7 @@
         <v>150</v>
       </c>
       <c r="I26" s="2">
-        <v>43378.673611111109</v>
+        <v>43378.67361111111</v>
       </c>
       <c r="J26">
         <v>26498</v>
@@ -1530,7 +1519,7 @@
         <v>-4550</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1541,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>43381.416666666657</v>
+        <v>43381.41666666666</v>
       </c>
       <c r="G27">
         <v>26426</v>
@@ -1550,7 +1539,7 @@
         <v>150</v>
       </c>
       <c r="I27" s="2">
-        <v>43381.673611111109</v>
+        <v>43381.67361111111</v>
       </c>
       <c r="J27">
         <v>26157</v>
@@ -1565,13 +1554,13 @@
         <v>40150</v>
       </c>
       <c r="N27">
-        <v>1.0128913443830569</v>
+        <v>1.012891344383057</v>
       </c>
       <c r="O27">
         <v>40150</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1582,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>43382.416666666657</v>
+        <v>43382.41666666666</v>
       </c>
       <c r="G28">
         <v>26162</v>
@@ -1591,7 +1580,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="2">
-        <v>43382.673611111109</v>
+        <v>43382.67361111111</v>
       </c>
       <c r="J28">
         <v>26098</v>
@@ -1606,13 +1595,13 @@
         <v>9400</v>
       </c>
       <c r="N28">
-        <v>0.23953316515047271</v>
+        <v>0.2395331651504727</v>
       </c>
       <c r="O28">
         <v>9400</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1623,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="2">
-        <v>43383.416666666657</v>
+        <v>43383.41666666666</v>
       </c>
       <c r="G29">
         <v>26394</v>
@@ -1632,7 +1621,7 @@
         <v>150</v>
       </c>
       <c r="I29" s="2">
-        <v>43383.673611111109</v>
+        <v>43383.67361111111</v>
       </c>
       <c r="J29">
         <v>26152</v>
@@ -1647,13 +1636,13 @@
         <v>-36500</v>
       </c>
       <c r="N29">
-        <v>-0.92192670051274273</v>
+        <v>-0.9219267005127427</v>
       </c>
       <c r="O29">
         <v>-36500</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1664,7 +1653,7 @@
         <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>43384.416666666657</v>
+        <v>43384.41666666666</v>
       </c>
       <c r="G30">
         <v>25334</v>
@@ -1673,7 +1662,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="2">
-        <v>43384.673611111109</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="J30">
         <v>25247</v>
@@ -1688,13 +1677,13 @@
         <v>8500</v>
       </c>
       <c r="N30">
-        <v>0.33551748638193729</v>
+        <v>0.3355174863819373</v>
       </c>
       <c r="O30">
         <v>8500</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1711,19 +1700,19 @@
         <v>18</v>
       </c>
       <c r="F31" s="2">
-        <v>43384.416666666657</v>
+        <v>43384.41666666666</v>
       </c>
       <c r="G31">
-        <v>376.09756276767439</v>
+        <v>376.0975627676744</v>
       </c>
       <c r="H31">
         <v>100</v>
       </c>
       <c r="I31" s="2">
-        <v>43384.673611111109</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="J31">
-        <v>408.41063532724911</v>
+        <v>408.4106353272491</v>
       </c>
       <c r="K31">
         <v>200</v>
@@ -1732,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>3031.3072559574721</v>
+        <v>3031.307255957472</v>
       </c>
       <c r="N31">
-        <v>8.0598960377469719</v>
+        <v>8.059896037746972</v>
       </c>
       <c r="O31">
-        <v>3031.3072559574721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3031.307255957472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1752,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="2">
-        <v>43385.416666666657</v>
+        <v>43385.41666666666</v>
       </c>
       <c r="G32">
         <v>25379</v>
@@ -1782,7 +1771,7 @@
         <v>38350</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1793,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="2">
-        <v>43388.416666666657</v>
+        <v>43388.41666666666</v>
       </c>
       <c r="G33">
         <v>25623</v>
@@ -1802,7 +1791,7 @@
         <v>100</v>
       </c>
       <c r="I33" s="2">
-        <v>43388.673611111109</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="J33">
         <v>25375</v>
@@ -1817,13 +1806,13 @@
         <v>-25000</v>
       </c>
       <c r="N33">
-        <v>-0.97568590719275639</v>
+        <v>-0.9756859071927564</v>
       </c>
       <c r="O33">
         <v>-25000</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1840,19 +1829,19 @@
         <v>18</v>
       </c>
       <c r="F34" s="2">
-        <v>43388.416666666657</v>
+        <v>43388.41666666666</v>
       </c>
       <c r="G34">
-        <v>775.72240652525943</v>
+        <v>775.7224065252594</v>
       </c>
       <c r="H34">
         <v>100</v>
       </c>
       <c r="I34" s="2">
-        <v>43388.673611111109</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="J34">
-        <v>936.09917127330846</v>
+        <v>936.0991712733085</v>
       </c>
       <c r="K34">
         <v>200</v>
@@ -1861,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>15837.676474804901</v>
+        <v>15837.6764748049</v>
       </c>
       <c r="N34">
         <v>20.41668042792211</v>
       </c>
       <c r="O34">
-        <v>15837.676474804901</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15837.6764748049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1881,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="F35" s="2">
-        <v>43390.416666666657</v>
+        <v>43390.41666666666</v>
       </c>
       <c r="G35">
         <v>25772</v>
@@ -1890,7 +1879,7 @@
         <v>150</v>
       </c>
       <c r="I35" s="2">
-        <v>43390.673611111109</v>
+        <v>43390.67361111111</v>
       </c>
       <c r="J35">
         <v>25772</v>
@@ -1905,13 +1894,13 @@
         <v>-200</v>
       </c>
       <c r="N35">
-        <v>-5.1735733871384956E-3</v>
+        <v>-0.005173573387138496</v>
       </c>
       <c r="O35">
         <v>-200</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1922,7 +1911,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="2">
-        <v>43391.416666666657</v>
+        <v>43391.41666666666</v>
       </c>
       <c r="G36">
         <v>25402</v>
@@ -1931,7 +1920,7 @@
         <v>150</v>
       </c>
       <c r="I36" s="2">
-        <v>43391.673611111109</v>
+        <v>43391.67361111111</v>
       </c>
       <c r="J36">
         <v>25445</v>
@@ -1952,7 +1941,7 @@
         <v>-6650</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1963,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="2">
-        <v>43392.416666666657</v>
+        <v>43392.41666666666</v>
       </c>
       <c r="G37">
         <v>25268</v>
@@ -1972,7 +1961,7 @@
         <v>150</v>
       </c>
       <c r="I37" s="2">
-        <v>43392.553472222222</v>
+        <v>43392.55347222222</v>
       </c>
       <c r="J37">
         <v>25530</v>
@@ -1987,13 +1976,13 @@
         <v>-39500</v>
       </c>
       <c r="N37">
-        <v>-1.0421613635164371</v>
+        <v>-1.042161363516437</v>
       </c>
       <c r="O37">
         <v>-39500</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2004,7 +1993,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="2">
-        <v>43395.416666666657</v>
+        <v>43395.41666666666</v>
       </c>
       <c r="G38">
         <v>25816</v>
@@ -2034,7 +2023,7 @@
         <v>39100</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2045,7 +2034,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="2">
-        <v>43396.416666666657</v>
+        <v>43396.41666666666</v>
       </c>
       <c r="G39">
         <v>25801</v>
@@ -2054,7 +2043,7 @@
         <v>150</v>
       </c>
       <c r="I39" s="2">
-        <v>43396.673611111109</v>
+        <v>43396.67361111111</v>
       </c>
       <c r="J39">
         <v>25312</v>
@@ -2069,13 +2058,13 @@
         <v>73150</v>
       </c>
       <c r="N39">
-        <v>1.8901076185677561</v>
+        <v>1.890107618567756</v>
       </c>
       <c r="O39">
         <v>73150</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2086,7 +2075,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="2">
-        <v>43397.416666666657</v>
+        <v>43397.41666666666</v>
       </c>
       <c r="G40">
         <v>25305</v>
@@ -2095,7 +2084,7 @@
         <v>150</v>
       </c>
       <c r="I40" s="2">
-        <v>43397.472222222219</v>
+        <v>43397.47222222222</v>
       </c>
       <c r="J40">
         <v>25573</v>
@@ -2110,13 +2099,13 @@
         <v>-40400</v>
       </c>
       <c r="N40">
-        <v>-1.0643482842652969</v>
+        <v>-1.064348284265297</v>
       </c>
       <c r="O40">
         <v>-40400</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2127,7 +2116,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>43398.416666666657</v>
+        <v>43398.41666666666</v>
       </c>
       <c r="G41">
         <v>24637</v>
@@ -2157,7 +2146,7 @@
         <v>-25100</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2174,19 +2163,19 @@
         <v>18</v>
       </c>
       <c r="F42" s="2">
-        <v>43398.416666666657</v>
+        <v>43398.41666666666</v>
       </c>
       <c r="G42">
-        <v>145.84779861621061</v>
+        <v>145.8477986162106</v>
       </c>
       <c r="H42">
         <v>100</v>
       </c>
       <c r="I42" s="2">
-        <v>43398.673611111109</v>
+        <v>43398.67361111111</v>
       </c>
       <c r="J42">
-        <v>71.556263418044182</v>
+        <v>71.55626341804418</v>
       </c>
       <c r="K42">
         <v>200</v>
@@ -2195,16 +2184,16 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>-7629.1535198166457</v>
+        <v>-7629.153519816646</v>
       </c>
       <c r="N42">
-        <v>-52.309007007313753</v>
+        <v>-52.30900700731375</v>
       </c>
       <c r="O42">
-        <v>-7629.1535198166457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-7629.153519816646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2215,7 +2204,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="2">
-        <v>43399.416666666657</v>
+        <v>43399.41666666666</v>
       </c>
       <c r="G43">
         <v>24985</v>
@@ -2224,7 +2213,7 @@
         <v>150</v>
       </c>
       <c r="I43" s="2">
-        <v>43399.673611111109</v>
+        <v>43399.67361111111</v>
       </c>
       <c r="J43">
         <v>24647</v>
@@ -2245,7 +2234,7 @@
         <v>-50900</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2256,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="2">
-        <v>43402.416666666657</v>
+        <v>43402.41666666666</v>
       </c>
       <c r="G44">
         <v>24761</v>
@@ -2265,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="I44" s="2">
-        <v>43402.673611111109</v>
+        <v>43402.67361111111</v>
       </c>
       <c r="J44">
         <v>24819</v>
@@ -2286,7 +2275,7 @@
         <v>-8900</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2297,7 +2286,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="2">
-        <v>43403.416666666657</v>
+        <v>43403.41666666666</v>
       </c>
       <c r="G45">
         <v>24645</v>
@@ -2306,7 +2295,7 @@
         <v>150</v>
       </c>
       <c r="I45" s="2">
-        <v>43403.673611111109</v>
+        <v>43403.67361111111</v>
       </c>
       <c r="J45">
         <v>24722</v>
@@ -2327,7 +2316,7 @@
         <v>-11750</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2338,7 +2327,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="2">
-        <v>43404.416666666657</v>
+        <v>43404.41666666666</v>
       </c>
       <c r="G46">
         <v>24818</v>
@@ -2347,7 +2336,7 @@
         <v>150</v>
       </c>
       <c r="I46" s="2">
-        <v>43404.673611111109</v>
+        <v>43404.67361111111</v>
       </c>
       <c r="J46">
         <v>24925</v>
@@ -2362,13 +2351,13 @@
         <v>15850</v>
       </c>
       <c r="N46">
-        <v>0.42576624492975529</v>
+        <v>0.4257662449297553</v>
       </c>
       <c r="O46">
         <v>15850</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2379,7 +2368,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="2">
-        <v>43405.416666666657</v>
+        <v>43405.41666666666</v>
       </c>
       <c r="G47">
         <v>25343</v>
@@ -2388,7 +2377,7 @@
         <v>150</v>
       </c>
       <c r="I47" s="2">
-        <v>43405.673611111109</v>
+        <v>43405.67361111111</v>
       </c>
       <c r="J47">
         <v>25360</v>
@@ -2403,13 +2392,13 @@
         <v>2350</v>
       </c>
       <c r="N47">
-        <v>6.181851661865867E-2</v>
+        <v>0.06181851661865867</v>
       </c>
       <c r="O47">
         <v>2350</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2420,7 +2409,7 @@
         <v>18</v>
       </c>
       <c r="F48" s="2">
-        <v>43406.416666666657</v>
+        <v>43406.41666666666</v>
       </c>
       <c r="G48">
         <v>25941</v>
@@ -2429,7 +2418,7 @@
         <v>150</v>
       </c>
       <c r="I48" s="2">
-        <v>43406.543055555558</v>
+        <v>43406.54305555556</v>
       </c>
       <c r="J48">
         <v>26265</v>
@@ -2450,7 +2439,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2467,19 +2456,19 @@
         <v>18</v>
       </c>
       <c r="F49" s="2">
-        <v>43409.416666666657</v>
+        <v>43409.41666666666</v>
       </c>
       <c r="G49">
-        <v>450.67097175855821</v>
+        <v>450.6709717585582</v>
       </c>
       <c r="H49">
         <v>100</v>
       </c>
       <c r="I49" s="2">
-        <v>43409.673611111109</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="J49">
-        <v>466.05868118341641</v>
+        <v>466.0586811834164</v>
       </c>
       <c r="K49">
         <v>200</v>
@@ -2491,13 +2480,13 @@
         <v>1338.770942485826</v>
       </c>
       <c r="N49">
-        <v>2.9706172049684549</v>
+        <v>2.970617204968455</v>
       </c>
       <c r="O49">
         <v>1338.770942485826</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2514,7 +2503,7 @@
         <v>18</v>
       </c>
       <c r="F50" s="2">
-        <v>43409.416666666657</v>
+        <v>43409.41666666666</v>
       </c>
       <c r="G50">
         <v>843.2887938031563</v>
@@ -2523,10 +2512,10 @@
         <v>100</v>
       </c>
       <c r="I50" s="2">
-        <v>43409.673611111109</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="J50">
-        <v>866.31935094947585</v>
+        <v>866.3193509494758</v>
       </c>
       <c r="K50">
         <v>200</v>
@@ -2535,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>2103.0557146319552</v>
+        <v>2103.055714631955</v>
       </c>
       <c r="N50">
-        <v>2.4938736647351418</v>
+        <v>2.493873664735142</v>
       </c>
       <c r="O50">
-        <v>2103.0557146319552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2103.055714631955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2555,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="2">
-        <v>43410.416666666657</v>
+        <v>43410.41666666666</v>
       </c>
       <c r="G51">
         <v>25833</v>
@@ -2564,7 +2553,7 @@
         <v>150</v>
       </c>
       <c r="I51" s="2">
-        <v>43410.629861111112</v>
+        <v>43410.62986111111</v>
       </c>
       <c r="J51">
         <v>26120</v>
@@ -2585,7 +2574,7 @@
         <v>-43250</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2596,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="F52" s="2">
-        <v>43411.416666666657</v>
+        <v>43411.41666666666</v>
       </c>
       <c r="G52">
         <v>26096</v>
@@ -2605,7 +2594,7 @@
         <v>150</v>
       </c>
       <c r="I52" s="2">
-        <v>43411.486805555563</v>
+        <v>43411.48680555556</v>
       </c>
       <c r="J52">
         <v>26394</v>
@@ -2620,13 +2609,13 @@
         <v>44500</v>
       </c>
       <c r="N52">
-        <v>1.1368281218066629</v>
+        <v>1.136828121806663</v>
       </c>
       <c r="O52">
         <v>44500</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2637,7 +2626,7 @@
         <v>18</v>
       </c>
       <c r="F53" s="2">
-        <v>43412.416666666657</v>
+        <v>43412.41666666666</v>
       </c>
       <c r="G53">
         <v>26339</v>
@@ -2646,7 +2635,7 @@
         <v>150</v>
       </c>
       <c r="I53" s="2">
-        <v>43412.673611111109</v>
+        <v>43412.67361111111</v>
       </c>
       <c r="J53">
         <v>26181</v>
@@ -2661,13 +2650,13 @@
         <v>-23900</v>
       </c>
       <c r="N53">
-        <v>-0.60493311565865571</v>
+        <v>-0.6049331156586557</v>
       </c>
       <c r="O53">
         <v>-23900</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2678,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="F54" s="2">
-        <v>43413.416666666657</v>
+        <v>43413.41666666666</v>
       </c>
       <c r="G54">
         <v>25728</v>
@@ -2687,7 +2676,7 @@
         <v>150</v>
       </c>
       <c r="I54" s="2">
-        <v>43413.673611111109</v>
+        <v>43413.67361111111</v>
       </c>
       <c r="J54">
         <v>25544</v>
@@ -2702,13 +2691,13 @@
         <v>27400</v>
       </c>
       <c r="N54">
-        <v>0.70999170812603651</v>
+        <v>0.7099917081260365</v>
       </c>
       <c r="O54">
         <v>27400</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2719,7 +2708,7 @@
         <v>17</v>
       </c>
       <c r="F55" s="2">
-        <v>43416.416666666657</v>
+        <v>43416.41666666666</v>
       </c>
       <c r="G55">
         <v>25583</v>
@@ -2728,7 +2717,7 @@
         <v>150</v>
       </c>
       <c r="I55" s="2">
-        <v>43416.673611111109</v>
+        <v>43416.67361111111</v>
       </c>
       <c r="J55">
         <v>25570</v>
@@ -2743,13 +2732,13 @@
         <v>1750</v>
       </c>
       <c r="N55">
-        <v>4.5603200041694353E-2</v>
+        <v>0.04560320004169435</v>
       </c>
       <c r="O55">
         <v>1750</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2760,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="F56" s="2">
-        <v>43417.416666666657</v>
+        <v>43417.41666666666</v>
       </c>
       <c r="G56">
         <v>25101</v>
@@ -2769,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="I56" s="2">
-        <v>43417.476388888892</v>
+        <v>43417.47638888889</v>
       </c>
       <c r="J56">
         <v>25361</v>
@@ -2790,7 +2779,7 @@
         <v>-26200</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2807,16 +2796,16 @@
         <v>18</v>
       </c>
       <c r="F57" s="2">
-        <v>43417.416666666657</v>
+        <v>43417.41666666666</v>
       </c>
       <c r="G57">
-        <v>337.62763700359761</v>
+        <v>337.6276370035976</v>
       </c>
       <c r="H57">
         <v>100</v>
       </c>
       <c r="I57" s="2">
-        <v>43417.673611111109</v>
+        <v>43417.67361111111</v>
       </c>
       <c r="J57">
         <v>146.7056386214208</v>
@@ -2828,16 +2817,16 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>-19292.199838217679</v>
+        <v>-19292.19983821768</v>
       </c>
       <c r="N57">
-        <v>-57.140464001802407</v>
+        <v>-57.14046400180241</v>
       </c>
       <c r="O57">
-        <v>-19292.199838217679</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-19292.19983821768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2848,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="F58" s="2">
-        <v>43418.416666666657</v>
+        <v>43418.41666666666</v>
       </c>
       <c r="G58">
         <v>25632</v>
@@ -2857,7 +2846,7 @@
         <v>150</v>
       </c>
       <c r="I58" s="2">
-        <v>43418.673611111109</v>
+        <v>43418.67361111111</v>
       </c>
       <c r="J58">
         <v>25625</v>
@@ -2872,13 +2861,13 @@
         <v>-1250</v>
       </c>
       <c r="N58">
-        <v>-3.2511444028297962E-2</v>
+        <v>-0.03251144402829796</v>
       </c>
       <c r="O58">
         <v>-1250</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2889,7 +2878,7 @@
         <v>17</v>
       </c>
       <c r="F59" s="2">
-        <v>43419.416666666657</v>
+        <v>43419.41666666666</v>
       </c>
       <c r="G59">
         <v>25591</v>
@@ -2898,7 +2887,7 @@
         <v>150</v>
       </c>
       <c r="I59" s="2">
-        <v>43419.583333333343</v>
+        <v>43419.58333333334</v>
       </c>
       <c r="J59">
         <v>25862</v>
@@ -2919,7 +2908,7 @@
         <v>-40850</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2930,7 +2919,7 @@
         <v>18</v>
       </c>
       <c r="F60" s="2">
-        <v>43420.416666666657</v>
+        <v>43420.41666666666</v>
       </c>
       <c r="G60">
         <v>25887</v>
@@ -2954,13 +2943,13 @@
         <v>38650</v>
       </c>
       <c r="N60">
-        <v>0.99535159217625324</v>
+        <v>0.9953515921762532</v>
       </c>
       <c r="O60">
         <v>38650</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2971,7 +2960,7 @@
         <v>18</v>
       </c>
       <c r="F61" s="2">
-        <v>43423.416666666657</v>
+        <v>43423.41666666666</v>
       </c>
       <c r="G61">
         <v>26302</v>
@@ -2980,7 +2969,7 @@
         <v>150</v>
       </c>
       <c r="I61" s="2">
-        <v>43423.673611111109</v>
+        <v>43423.67361111111</v>
       </c>
       <c r="J61">
         <v>26325</v>
@@ -2995,13 +2984,13 @@
         <v>3250</v>
       </c>
       <c r="N61">
-        <v>8.2376498618609489E-2</v>
+        <v>0.08237649861860949</v>
       </c>
       <c r="O61">
         <v>3250</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3012,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="F62" s="2">
-        <v>43424.416666666657</v>
+        <v>43424.41666666666</v>
       </c>
       <c r="G62">
         <v>26028</v>
@@ -3021,7 +3010,7 @@
         <v>150</v>
       </c>
       <c r="I62" s="2">
-        <v>43424.673611111109</v>
+        <v>43424.67361111111</v>
       </c>
       <c r="J62">
         <v>25767</v>
@@ -3036,13 +3025,13 @@
         <v>38950</v>
       </c>
       <c r="N62">
-        <v>0.99764356334204196</v>
+        <v>0.997643563342042</v>
       </c>
       <c r="O62">
         <v>38950</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3053,7 +3042,7 @@
         <v>17</v>
       </c>
       <c r="F63" s="2">
-        <v>43425.416666666657</v>
+        <v>43425.41666666666</v>
       </c>
       <c r="G63">
         <v>25616</v>
@@ -3062,7 +3051,7 @@
         <v>150</v>
       </c>
       <c r="I63" s="2">
-        <v>43425.616666666669</v>
+        <v>43425.61666666667</v>
       </c>
       <c r="J63">
         <v>25881</v>
@@ -3083,7 +3072,7 @@
         <v>-39950</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3094,7 +3083,7 @@
         <v>18</v>
       </c>
       <c r="F64" s="2">
-        <v>43426.416666666657</v>
+        <v>43426.41666666666</v>
       </c>
       <c r="G64">
         <v>25819</v>
@@ -3103,7 +3092,7 @@
         <v>150</v>
       </c>
       <c r="I64" s="2">
-        <v>43426.673611111109</v>
+        <v>43426.67361111111</v>
       </c>
       <c r="J64">
         <v>25961</v>
@@ -3118,13 +3107,13 @@
         <v>21100</v>
       </c>
       <c r="N64">
-        <v>0.54481841537885545</v>
+        <v>0.5448184153788554</v>
       </c>
       <c r="O64">
         <v>21100</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3135,7 +3124,7 @@
         <v>18</v>
       </c>
       <c r="F65" s="2">
-        <v>43430.416666666657</v>
+        <v>43430.41666666666</v>
       </c>
       <c r="G65">
         <v>26192</v>
@@ -3144,7 +3133,7 @@
         <v>150</v>
       </c>
       <c r="I65" s="2">
-        <v>43430.673611111109</v>
+        <v>43430.67361111111</v>
       </c>
       <c r="J65">
         <v>26371</v>
@@ -3159,13 +3148,13 @@
         <v>26650</v>
       </c>
       <c r="N65">
-        <v>0.67832417023009572</v>
+        <v>0.6783241702300957</v>
       </c>
       <c r="O65">
         <v>26650</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3176,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F66" s="2">
-        <v>43431.416666666657</v>
+        <v>43431.41666666666</v>
       </c>
       <c r="G66">
         <v>26154</v>
@@ -3185,7 +3174,7 @@
         <v>150</v>
       </c>
       <c r="I66" s="2">
-        <v>43431.673611111109</v>
+        <v>43431.67361111111</v>
       </c>
       <c r="J66">
         <v>26294</v>
@@ -3200,13 +3189,13 @@
         <v>-21200</v>
       </c>
       <c r="N66">
-        <v>-0.54038897810405029</v>
+        <v>-0.5403889781040503</v>
       </c>
       <c r="O66">
         <v>-21200</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3217,7 +3206,7 @@
         <v>18</v>
       </c>
       <c r="F67" s="2">
-        <v>43432.416666666657</v>
+        <v>43432.41666666666</v>
       </c>
       <c r="G67">
         <v>26350</v>
@@ -3226,7 +3215,7 @@
         <v>150</v>
       </c>
       <c r="I67" s="2">
-        <v>43432.583333333343</v>
+        <v>43432.58333333334</v>
       </c>
       <c r="J67">
         <v>26624</v>
@@ -3247,7 +3236,7 @@
         <v>40900</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3258,7 +3247,7 @@
         <v>18</v>
       </c>
       <c r="F68" s="2">
-        <v>43433.416666666657</v>
+        <v>43433.41666666666</v>
       </c>
       <c r="G68">
         <v>26766</v>
@@ -3267,7 +3256,7 @@
         <v>150</v>
       </c>
       <c r="I68" s="2">
-        <v>43433.673611111109</v>
+        <v>43433.67361111111</v>
       </c>
       <c r="J68">
         <v>26590</v>
@@ -3282,13 +3271,13 @@
         <v>-26600</v>
       </c>
       <c r="N68">
-        <v>-0.66253206804652676</v>
+        <v>-0.6625320680465268</v>
       </c>
       <c r="O68">
         <v>-26600</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3299,7 +3288,7 @@
         <v>17</v>
       </c>
       <c r="F69" s="2">
-        <v>43434.416666666657</v>
+        <v>43434.41666666666</v>
       </c>
       <c r="G69">
         <v>26574</v>
@@ -3308,7 +3297,7 @@
         <v>150</v>
       </c>
       <c r="I69" s="2">
-        <v>43434.673611111109</v>
+        <v>43434.67361111111</v>
       </c>
       <c r="J69">
         <v>26521</v>
